--- a/VT_REG2_IND_V12.xlsx
+++ b/VT_REG2_IND_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1676E8F3-52F5-43BD-BCF3-7BEB5D491B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F187F6-77CD-43F8-AE27-28A123A79060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,14 +65,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -800,14 +800,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="160">
   <si>
     <t>CommName</t>
   </si>
@@ -1885,24 +1885,6 @@
     <t>Emission by sector</t>
   </si>
   <si>
-    <t>Timeslices</t>
-  </si>
-  <si>
-    <t>COM_FR</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t>WN</t>
-  </si>
-  <si>
     <t>DAYNITE</t>
   </si>
   <si>
@@ -2033,43 +2015,16 @@
   </si>
   <si>
     <t>Lifetime</t>
-  </si>
-  <si>
-    <t>DIDM1</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>WP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -2554,11 +2509,11 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2583,7 +2538,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2657,17 +2612,17 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="21" fillId="10" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="19" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2718,7 +2673,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2731,13 +2686,13 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="10" borderId="9" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -2777,13 +2732,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="14" borderId="0" xfId="20" applyFont="1" applyFill="1"/>
@@ -2793,29 +2748,27 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="24" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="24" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="16"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -2823,35 +2776,35 @@
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="6"/>
-    <cellStyle name="Comma 2 2" xfId="7"/>
+    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Input" xfId="9" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="10"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Neutral" xfId="11" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="12"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 3" xfId="14"/>
-    <cellStyle name="Normal 4" xfId="15"/>
-    <cellStyle name="Normal 4 2" xfId="16"/>
-    <cellStyle name="Normal 8" xfId="17"/>
-    <cellStyle name="Normal 9 2" xfId="18"/>
-    <cellStyle name="Normale_B2020" xfId="19"/>
+    <cellStyle name="Normal 10" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 9 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normale_B2020" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Percent" xfId="20" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="21"/>
-    <cellStyle name="Percent 3" xfId="22"/>
-    <cellStyle name="Percent 3 2" xfId="23"/>
-    <cellStyle name="Percent 3 2 2" xfId="24"/>
-    <cellStyle name="Percent 3 3" xfId="25"/>
-    <cellStyle name="Percent 4" xfId="26"/>
-    <cellStyle name="Percent 4 2" xfId="27"/>
-    <cellStyle name="Percent 4 2 2" xfId="28"/>
-    <cellStyle name="Percent 4 3" xfId="29"/>
-    <cellStyle name="Percent 5" xfId="30"/>
-    <cellStyle name="Percent 5 2" xfId="31"/>
-    <cellStyle name="Percent 6" xfId="32"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="33"/>
+    <cellStyle name="Percent 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 3 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 3 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 4 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 4 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Percent 5" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Percent 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Percent 6" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4577,13 +4530,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G38" sqref="F38:G38"/>
     </sheetView>
   </sheetViews>
@@ -4627,40 +4580,40 @@
         <v>46</v>
       </c>
       <c r="G2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="42" t="s">
         <v>125</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>131</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>47</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="S2" s="42" t="s">
         <v>48</v>
@@ -4672,11 +4625,11 @@
         <v>50</v>
       </c>
       <c r="V2" s="42" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="60" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Z2" s="13" t="s">
         <v>76</v>
@@ -4687,7 +4640,7 @@
     </row>
     <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C3" s="59" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>51</v>
@@ -4696,43 +4649,43 @@
         <v>52</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I3" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>133</v>
-      </c>
       <c r="K3" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N3" s="43" t="s">
         <v>53</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="S3" s="43" t="s">
         <v>54</v>
@@ -5458,7 +5411,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="53">
         <f t="shared" ref="D13:V13" si="1">SUM(D5:D12)</f>
@@ -5552,7 +5505,7 @@
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="C16" s="45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -5606,43 +5559,43 @@
         <v>52</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I19" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>133</v>
-      </c>
       <c r="K19" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N19" s="43" t="s">
         <v>53</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P19" s="43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R19" s="43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="S19" s="43" t="s">
         <v>54</v>
@@ -5663,7 +5616,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D20" s="86"/>
       <c r="E20" s="85"/>
@@ -5745,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5761,7 +5714,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="70" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
@@ -5774,7 +5727,7 @@
     </row>
     <row r="5" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
@@ -5790,11 +5743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6072,9 +6025,13 @@
         <v>PJ</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
+      <c r="P9" s="120" t="s">
+        <v>116</v>
+      </c>
       <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
+      <c r="R9" s="120" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
@@ -6127,10 +6084,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13" s="72" t="s">
         <v>84</v>
@@ -6177,7 +6134,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>34</v>
@@ -6186,7 +6143,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J14" s="119" t="s">
         <v>38</v>
@@ -6437,7 +6394,7 @@
         <v>PJa</v>
       </c>
       <c r="P20" s="120" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="120"/>
       <c r="R20" s="120"/>
@@ -6607,13 +6564,13 @@
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="48"/>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="62"/>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6625,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6831,7 +6788,7 @@
     </row>
     <row r="7" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="G7" s="105" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.25">
@@ -6868,13 +6825,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G9" s="97" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H9" s="72" t="s">
         <v>84</v>
@@ -6927,10 +6884,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>89</v>
@@ -6939,7 +6896,7 @@
         <v>97</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L10" s="119" t="s">
         <v>38</v>
@@ -7225,13 +7182,13 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -7269,11 +7226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7290,7 +7247,7 @@
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>73</v>
       </c>
@@ -7307,7 +7264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
@@ -7322,19 +7279,15 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
@@ -7342,26 +7295,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E6" s="95">
         <v>2005</v>
       </c>
       <c r="F6" s="113"/>
-      <c r="H6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>81</v>
       </c>
@@ -7369,22 +7310,14 @@
         <v>82</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="114"/>
-      <c r="H7" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
         <v>90</v>
       </c>
@@ -7395,14 +7328,8 @@
         <v>PJ</v>
       </c>
       <c r="F8" s="114"/>
-      <c r="H8" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
@@ -7418,199 +7345,43 @@
         <v>6558.3449499999988</v>
       </c>
       <c r="F9" s="96"/>
-      <c r="H9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="127">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="126" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="127">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="10"/>
       <c r="E11" s="96"/>
       <c r="F11" s="96"/>
-      <c r="H11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" s="126" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="127">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="10"/>
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
-      <c r="H12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="127">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="127">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="127">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
-      <c r="H15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="127">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="H16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="127">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="127">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="H18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" s="126" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="127">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="126" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="127">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="126" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="127">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
       <c r="C24" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="62"/>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7620,7 +7391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B3:I24"/>
   <sheetViews>
@@ -7635,7 +7406,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="91" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
@@ -7655,7 +7426,7 @@
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C5" s="68"/>
       <c r="F5" s="37"/>
@@ -7686,13 +7457,13 @@
         <v>90</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
@@ -7723,13 +7494,13 @@
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="62"/>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
